--- a/pim/src/PcmtCustomDatasetBundle/Resources/fixtures/pcmt_global/import_files/2020-03-29/5_families.xlsx
+++ b/pim/src/PcmtCustomDatasetBundle/Resources/fixtures/pcmt_global/import_files/2020-03-29/5_families.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">label-en_US</t>
   </si>
   <si>
+    <t xml:space="preserve">label-fr_FR</t>
+  </si>
+  <si>
     <t xml:space="preserve">attributes</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t xml:space="preserve">requirements-GS1_GDSN</t>
   </si>
   <si>
+    <t xml:space="preserve">requirements-LMIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">requirements-PRODUCT_CATALOG</t>
   </si>
   <si>
@@ -131,6 +137,21 @@
   </si>
   <si>
     <t xml:space="preserve">MD_COUNTRYBUCKETSETTINGS_ALERTENABLED,MD_COUNTRYBUCKETSETTINGS_DESIREDMOS,MD_COUNTRYBUCKETSETTINGS_FORECASTAMC,MD_COUNTRYBUCKETSETTINGS_L3,MD_COUNTRYBUCKETSETTINGS_L5,MD_COUNTRYBUCKETSETTINGS_MAXMOS,MD_COUNTRYBUCKETSETTINGS_MINMOS,MD_COUNTRYBUCKETSETTINGS_PARENTID,MD_COUNTRYBUCKETSETTINGS_RECIPIENTINVENTORYID,MD_COUNTRYBUCKETSETTINGS_RECIPIENTITEMID,MD_COUNTRYBUCKETSETTINGS_RECIPIENTPPMRID,MD_COUNTRYBUCKETSETTINGS_RECIPIENTSUPPLYPLANDESC,MD_COUNTRYBUCKETSETTINGS_RECIPIENTSUPPLYPLANID,MD_HUB_BUCKETID,MD_HUB_COUNTRYISOCODE,sku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID_LMIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-LMIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASE_UOM,LMIS_CODE,LMIS_ROUND_TO_ZERO,LMIS_UUID,LMIS_PACK_ROUNDING_THRESHOLD,PACK_SIZE,PRODUCT_DESCRIPTION,UNSPSC_CODE,UN_SUPPLY_MATERIAL_CODE,UOM_QTY_FACTOR,WHO_COVID19_ITEM_CODE,price_reference,sku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASE_UOM,LMIS_CODE,LMIS_ROUND_TO_ZERO,LMIS_UUID,LMIS_PACK_ROUNDING_THRESHOLD,PACK_SIZE,PRODUCT_DESCRIPTION,sku,UOM_QTY_FACTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASE_UOM,PRODUCT_DESCRIPTION,sku,UN_SUPPLY_MATERIAL_CODE,WHO_COVID19_ITEM_CODE</t>
   </si>
 </sst>
 </file>
@@ -145,7 +166,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -232,22 +253,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1592592592593"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.44814814814815"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.2962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="59.1407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.44814814814815"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="67.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="8.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="99.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="58.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -269,151 +293,202 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
